--- a/media/modelos_de_telas.xlsx
+++ b/media/modelos_de_telas.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
